--- a/Solvs.xlsx
+++ b/Solvs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17000" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>P3HT</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>THF</t>
+  </si>
+  <si>
+    <t>C2H2Cl4</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>C2Cl4</t>
+  </si>
+  <si>
+    <t>CHB</t>
+  </si>
+  <si>
+    <t>Thiophene</t>
   </si>
 </sst>
 </file>
@@ -58,7 +73,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -416,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -594,6 +608,106 @@
       </c>
       <c r="F9">
         <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>18.8</v>
+      </c>
+      <c r="C10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10">
+        <v>5.3</v>
+      </c>
+      <c r="E10">
+        <v>105.2</v>
+      </c>
+      <c r="F10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1.4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>106</v>
+      </c>
+      <c r="F11">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>18.3</v>
+      </c>
+      <c r="C12">
+        <v>5.7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>101.2</v>
+      </c>
+      <c r="F12">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>17.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>169</v>
+      </c>
+      <c r="F13">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C14">
+        <v>2.4</v>
+      </c>
+      <c r="D14">
+        <v>7.8</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Solvs.xlsx
+++ b/Solvs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>P3HT</t>
   </si>
@@ -39,9 +39,6 @@
     <t>DCB</t>
   </si>
   <si>
-    <t>p-Xylene</t>
-  </si>
-  <si>
     <t>TCB</t>
   </si>
   <si>
@@ -61,6 +58,18 @@
   </si>
   <si>
     <t>Thiophene</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>P-Xylene</t>
+  </si>
+  <si>
+    <t>2-MP</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -551,7 +560,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>17.600000000000001</v>
@@ -571,7 +580,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>20.2</v>
@@ -592,7 +601,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>16.8</v>
@@ -612,7 +621,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>18.8</v>
@@ -632,7 +641,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -652,7 +661,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>18.3</v>
@@ -672,7 +681,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>17.5</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>18.399999999999999</v>
@@ -708,6 +717,67 @@
       </c>
       <c r="F14">
         <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E15">
+        <v>115.6</v>
+      </c>
+      <c r="F15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>89.4</v>
+      </c>
+      <c r="F16">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>14.9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>131.6</v>
+      </c>
+      <c r="F17">
+        <f>61+273</f>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
